--- a/Students_Attendance_Project/Students_Attendance_Project/FileUpload/student_class (1).xlsx
+++ b/Students_Attendance_Project/Students_Attendance_Project/FileUpload/student_class (1).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>STUDENT_NO</t>
   </si>
@@ -73,15 +73,6 @@
   </si>
   <si>
     <t>Mr.WANRERK  KHAMSAMER</t>
-  </si>
-  <si>
-    <t>571733023027-1</t>
-  </si>
-  <si>
-    <t>นายพยุงศักดิ์  ขนุนสูงเนิน</t>
-  </si>
-  <si>
-    <t>Mr.PAYUNGSAK  KANUNSUNGNOEN</t>
   </si>
   <si>
     <t>04-061-204 | โครงสร้างข้อมูล กลุ่ม CPE.57231</t>
@@ -424,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,7 +450,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -504,17 +495,6 @@
       </c>
       <c r="C6" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Students_Attendance_Project/Students_Attendance_Project/FileUpload/student_class (1).xlsx
+++ b/Students_Attendance_Project/Students_Attendance_Project/FileUpload/student_class (1).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>STUDENT_NO</t>
   </si>
@@ -76,6 +76,24 @@
   </si>
   <si>
     <t>04-061-204 | โครงสร้างข้อมูล กลุ่ม CPE.57231</t>
+  </si>
+  <si>
+    <t>571733023021-5</t>
+  </si>
+  <si>
+    <t>นายเรียนดี  รักเรียน</t>
+  </si>
+  <si>
+    <t>Mr.REANDEE  RUKREAN</t>
+  </si>
+  <si>
+    <t>571733023021-6</t>
+  </si>
+  <si>
+    <t>นายคนดี  ศรีสังคม</t>
+  </si>
+  <si>
+    <t>Mr.KHONDEE  SRISANKHOM</t>
   </si>
 </sst>
 </file>
@@ -415,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,6 +515,28 @@
         <v>17</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
